--- a/Datasets/Reduced_with-real-values-community.xlsx
+++ b/Datasets/Reduced_with-real-values-community.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="65">
   <si>
     <t>Authors</t>
   </si>
@@ -124,7 +124,7 @@
     <t>Total_final_organic_C_mM</t>
   </si>
   <si>
-    <t>C_conversion_ratio</t>
+    <t>C_ratio</t>
   </si>
   <si>
     <t>Community_number</t>
@@ -566,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM159"/>
+  <dimension ref="A1:AM158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3541,7 +3541,7 @@
         <v>0.02935064935064935</v>
       </c>
       <c r="AM25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:39">
@@ -3731,7 +3731,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="W27">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="X27">
         <v>1</v>
@@ -3850,7 +3850,7 @@
         <v>4.8</v>
       </c>
       <c r="W28">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="X28">
         <v>1</v>
@@ -6278,7 +6278,7 @@
         <v>0.005048943843379701</v>
       </c>
       <c r="AM48">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:39">
@@ -16274,7 +16274,7 @@
         <v>-1</v>
       </c>
       <c r="AM132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:39">
@@ -18073,13 +18073,13 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>299</v>
+        <v>231</v>
       </c>
       <c r="E148">
         <v>35</v>
       </c>
       <c r="F148">
-        <v>12227.92</v>
+        <v>2187.2</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -18115,7 +18115,7 @@
         <v>0</v>
       </c>
       <c r="R148">
-        <v>2.23</v>
+        <v>-1</v>
       </c>
       <c r="S148">
         <v>53</v>
@@ -18127,10 +18127,10 @@
         <v>-1</v>
       </c>
       <c r="V148">
-        <v>8.630000000000001</v>
+        <v>6.35</v>
       </c>
       <c r="W148">
-        <v>0.01</v>
+        <v>200</v>
       </c>
       <c r="X148">
         <v>0</v>
@@ -18163,22 +18163,22 @@
         <v>0</v>
       </c>
       <c r="AH148">
-        <v>3.26</v>
+        <v>1.12</v>
       </c>
       <c r="AI148">
-        <v>0.03922</v>
+        <v>0.0176</v>
       </c>
       <c r="AJ148">
         <v>-1</v>
       </c>
       <c r="AK148">
-        <v>0.03922</v>
+        <v>0.0176</v>
       </c>
       <c r="AL148">
-        <v>3.922</v>
+        <v>8.800000000000001e-05</v>
       </c>
       <c r="AM148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:39">
@@ -18186,22 +18186,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="E149">
         <v>35</v>
       </c>
       <c r="F149">
-        <v>2187.2</v>
+        <v>13441</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -18210,7 +18210,7 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -18231,31 +18231,31 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R149">
-        <v>-1</v>
+        <v>2.37</v>
       </c>
       <c r="S149">
-        <v>53</v>
+        <v>300</v>
       </c>
       <c r="T149">
-        <v>212</v>
+        <v>3000</v>
       </c>
       <c r="U149">
-        <v>-1</v>
+        <v>6.3</v>
       </c>
       <c r="V149">
-        <v>6.35</v>
+        <v>9</v>
       </c>
       <c r="W149">
-        <v>200</v>
+        <v>0.01</v>
       </c>
       <c r="X149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z149">
         <v>0</v>
@@ -18264,7 +18264,7 @@
         <v>0</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC149">
         <v>0</v>
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="AE149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF149">
         <v>0</v>
@@ -18282,22 +18282,22 @@
         <v>0</v>
       </c>
       <c r="AH149">
-        <v>1.12</v>
+        <v>7.7</v>
       </c>
       <c r="AI149">
-        <v>0.0176</v>
+        <v>-1</v>
       </c>
       <c r="AJ149">
         <v>-1</v>
       </c>
       <c r="AK149">
-        <v>0.0176</v>
+        <v>-1</v>
       </c>
       <c r="AL149">
-        <v>8.800000000000001e-05</v>
+        <v>-1</v>
       </c>
       <c r="AM149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:39">
@@ -18305,19 +18305,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="E150">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F150">
-        <v>13441</v>
+        <v>75</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -18326,10 +18326,10 @@
         <v>0</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -18338,10 +18338,10 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O150">
         <v>0</v>
@@ -18350,31 +18350,31 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>2.37</v>
+        <v>25</v>
       </c>
       <c r="S150">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="T150">
-        <v>3000</v>
+        <v>74</v>
       </c>
       <c r="U150">
-        <v>6.3</v>
+        <v>2.4</v>
       </c>
       <c r="V150">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="W150">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="X150">
         <v>1</v>
       </c>
       <c r="Y150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z150">
         <v>0</v>
@@ -18383,10 +18383,10 @@
         <v>0</v>
       </c>
       <c r="AB150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD150">
         <v>1</v>
@@ -18401,22 +18401,22 @@
         <v>0</v>
       </c>
       <c r="AH150">
-        <v>7.7</v>
+        <v>350</v>
       </c>
       <c r="AI150">
-        <v>-1</v>
+        <v>0.05</v>
       </c>
       <c r="AJ150">
-        <v>-1</v>
+        <v>0.0034</v>
       </c>
       <c r="AK150">
-        <v>-1</v>
+        <v>0.0534</v>
       </c>
       <c r="AL150">
         <v>-1</v>
       </c>
       <c r="AM150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:39">
@@ -18427,16 +18427,16 @@
         <v>64</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E151">
         <v>17</v>
       </c>
       <c r="F151">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -18472,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="R151">
-        <v>25</v>
+        <v>31.24</v>
       </c>
       <c r="S151">
         <v>74</v>
@@ -18520,16 +18520,16 @@
         <v>0</v>
       </c>
       <c r="AH151">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="AI151">
-        <v>0.05</v>
+        <v>0.067</v>
       </c>
       <c r="AJ151">
-        <v>0.0034</v>
+        <v>0.001899999999999999</v>
       </c>
       <c r="AK151">
-        <v>0.0534</v>
+        <v>0.0689</v>
       </c>
       <c r="AL151">
         <v>-1</v>
@@ -18546,7 +18546,7 @@
         <v>64</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D152">
         <v>255</v>
@@ -18555,7 +18555,7 @@
         <v>17</v>
       </c>
       <c r="F152">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -18591,7 +18591,7 @@
         <v>0</v>
       </c>
       <c r="R152">
-        <v>31.24</v>
+        <v>21.51724137931035</v>
       </c>
       <c r="S152">
         <v>74</v>
@@ -18600,13 +18600,13 @@
         <v>74</v>
       </c>
       <c r="U152">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="V152">
         <v>-1</v>
       </c>
       <c r="W152">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="X152">
         <v>1</v>
@@ -18639,19 +18639,19 @@
         <v>0</v>
       </c>
       <c r="AH152">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="AI152">
-        <v>0.067</v>
+        <v>1.1</v>
       </c>
       <c r="AJ152">
-        <v>0.001899999999999999</v>
+        <v>7.549999999999999</v>
       </c>
       <c r="AK152">
-        <v>0.0689</v>
+        <v>8.649999999999999</v>
       </c>
       <c r="AL152">
-        <v>-1</v>
+        <v>0.108125</v>
       </c>
       <c r="AM152">
         <v>1</v>
@@ -18665,16 +18665,16 @@
         <v>64</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D153">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E153">
         <v>17</v>
       </c>
       <c r="F153">
-        <v>68</v>
+        <v>285</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -18710,7 +18710,7 @@
         <v>0</v>
       </c>
       <c r="R153">
-        <v>21.51724137931035</v>
+        <v>19.5774647887324</v>
       </c>
       <c r="S153">
         <v>74</v>
@@ -18719,10 +18719,10 @@
         <v>74</v>
       </c>
       <c r="U153">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="V153">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="W153">
         <v>80</v>
@@ -18761,16 +18761,16 @@
         <v>320</v>
       </c>
       <c r="AI153">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="AJ153">
-        <v>7.549999999999999</v>
+        <v>5.71</v>
       </c>
       <c r="AK153">
-        <v>8.649999999999999</v>
+        <v>8.01</v>
       </c>
       <c r="AL153">
-        <v>0.108125</v>
+        <v>0.100125</v>
       </c>
       <c r="AM153">
         <v>1</v>
@@ -18784,16 +18784,16 @@
         <v>64</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D154">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E154">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F154">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -18829,7 +18829,7 @@
         <v>0</v>
       </c>
       <c r="R154">
-        <v>19.5774647887324</v>
+        <v>16.96551724137931</v>
       </c>
       <c r="S154">
         <v>74</v>
@@ -18838,10 +18838,10 @@
         <v>74</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="V154">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="W154">
         <v>80</v>
@@ -18877,19 +18877,19 @@
         <v>0</v>
       </c>
       <c r="AH154">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="AI154">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AJ154">
-        <v>5.71</v>
+        <v>6.36</v>
       </c>
       <c r="AK154">
-        <v>8.01</v>
+        <v>8.06</v>
       </c>
       <c r="AL154">
-        <v>0.100125</v>
+        <v>0.10075</v>
       </c>
       <c r="AM154">
         <v>1</v>
@@ -18903,16 +18903,16 @@
         <v>64</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D155">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E155">
         <v>35</v>
       </c>
       <c r="F155">
-        <v>241</v>
+        <v>390</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -18933,7 +18933,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -18942,13 +18942,13 @@
         <v>0</v>
       </c>
       <c r="P155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q155">
         <v>0</v>
       </c>
       <c r="R155">
-        <v>16.96551724137931</v>
+        <v>14.86956521739131</v>
       </c>
       <c r="S155">
         <v>74</v>
@@ -18957,13 +18957,13 @@
         <v>74</v>
       </c>
       <c r="U155">
-        <v>3.3</v>
+        <v>-1</v>
       </c>
       <c r="V155">
         <v>-1</v>
       </c>
       <c r="W155">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="X155">
         <v>1</v>
@@ -18996,19 +18996,19 @@
         <v>0</v>
       </c>
       <c r="AH155">
-        <v>370</v>
+        <v>510</v>
       </c>
       <c r="AI155">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="AJ155">
-        <v>6.36</v>
+        <v>5.08</v>
       </c>
       <c r="AK155">
-        <v>8.06</v>
+        <v>8.08</v>
       </c>
       <c r="AL155">
-        <v>0.10075</v>
+        <v>0.06464</v>
       </c>
       <c r="AM155">
         <v>1</v>
@@ -19022,16 +19022,16 @@
         <v>64</v>
       </c>
       <c r="C156">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D156">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E156">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F156">
-        <v>390</v>
+        <v>199</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -19067,7 +19067,7 @@
         <v>0</v>
       </c>
       <c r="R156">
-        <v>14.86956521739131</v>
+        <v>32.625</v>
       </c>
       <c r="S156">
         <v>74</v>
@@ -19115,19 +19115,19 @@
         <v>0</v>
       </c>
       <c r="AH156">
-        <v>510</v>
+        <v>450</v>
       </c>
       <c r="AI156">
-        <v>3</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AJ156">
-        <v>5.08</v>
+        <v>3.427999999999999</v>
       </c>
       <c r="AK156">
-        <v>8.08</v>
+        <v>3.988</v>
       </c>
       <c r="AL156">
-        <v>0.06464</v>
+        <v>0.03190399999999999</v>
       </c>
       <c r="AM156">
         <v>1</v>
@@ -19141,16 +19141,16 @@
         <v>64</v>
       </c>
       <c r="C157">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D157">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E157">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F157">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -19171,7 +19171,7 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -19180,13 +19180,13 @@
         <v>0</v>
       </c>
       <c r="P157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q157">
         <v>0</v>
       </c>
       <c r="R157">
-        <v>32.625</v>
+        <v>12.25352112676056</v>
       </c>
       <c r="S157">
         <v>74</v>
@@ -19195,13 +19195,13 @@
         <v>74</v>
       </c>
       <c r="U157">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W157">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="X157">
         <v>1</v>
@@ -19234,19 +19234,19 @@
         <v>0</v>
       </c>
       <c r="AH157">
-        <v>450</v>
+        <v>-1</v>
       </c>
       <c r="AI157">
-        <v>0.5600000000000001</v>
+        <v>0.027</v>
       </c>
       <c r="AJ157">
-        <v>3.427999999999999</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="AK157">
-        <v>3.988</v>
+        <v>0.0315</v>
       </c>
       <c r="AL157">
-        <v>0.03190399999999999</v>
+        <v>0.0004632352941176471</v>
       </c>
       <c r="AM157">
         <v>1</v>
@@ -19260,13 +19260,13 @@
         <v>64</v>
       </c>
       <c r="C158">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E158">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F158">
         <v>115</v>
@@ -19305,7 +19305,7 @@
         <v>0</v>
       </c>
       <c r="R158">
-        <v>12.25352112676056</v>
+        <v>26.38297872340426</v>
       </c>
       <c r="S158">
         <v>74</v>
@@ -19314,13 +19314,13 @@
         <v>74</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="V158">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="W158">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="X158">
         <v>1</v>
@@ -19353,140 +19353,21 @@
         <v>0</v>
       </c>
       <c r="AH158">
-        <v>-1</v>
+        <v>280</v>
       </c>
       <c r="AI158">
-        <v>0.027</v>
+        <v>51.9</v>
       </c>
       <c r="AJ158">
-        <v>0.004500000000000001</v>
+        <v>0.0001999999999995339</v>
       </c>
       <c r="AK158">
-        <v>0.0315</v>
+        <v>51.9002</v>
       </c>
       <c r="AL158">
-        <v>0.0004632352941176471</v>
+        <v>2.162508333333333</v>
       </c>
       <c r="AM158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:39">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>64</v>
-      </c>
-      <c r="C159">
-        <v>9</v>
-      </c>
-      <c r="D159">
-        <v>256</v>
-      </c>
-      <c r="E159">
-        <v>17</v>
-      </c>
-      <c r="F159">
-        <v>115</v>
-      </c>
-      <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>0</v>
-      </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="M159">
-        <v>1</v>
-      </c>
-      <c r="N159">
-        <v>0</v>
-      </c>
-      <c r="O159">
-        <v>0</v>
-      </c>
-      <c r="P159">
-        <v>0</v>
-      </c>
-      <c r="Q159">
-        <v>0</v>
-      </c>
-      <c r="R159">
-        <v>26.38297872340426</v>
-      </c>
-      <c r="S159">
-        <v>74</v>
-      </c>
-      <c r="T159">
-        <v>74</v>
-      </c>
-      <c r="U159">
-        <v>2.4</v>
-      </c>
-      <c r="V159">
-        <v>-1</v>
-      </c>
-      <c r="W159">
-        <v>24</v>
-      </c>
-      <c r="X159">
-        <v>1</v>
-      </c>
-      <c r="Y159">
-        <v>0</v>
-      </c>
-      <c r="Z159">
-        <v>0</v>
-      </c>
-      <c r="AA159">
-        <v>0</v>
-      </c>
-      <c r="AB159">
-        <v>0</v>
-      </c>
-      <c r="AC159">
-        <v>1</v>
-      </c>
-      <c r="AD159">
-        <v>1</v>
-      </c>
-      <c r="AE159">
-        <v>1</v>
-      </c>
-      <c r="AF159">
-        <v>0</v>
-      </c>
-      <c r="AG159">
-        <v>0</v>
-      </c>
-      <c r="AH159">
-        <v>280</v>
-      </c>
-      <c r="AI159">
-        <v>51.9</v>
-      </c>
-      <c r="AJ159">
-        <v>0.0001999999999995339</v>
-      </c>
-      <c r="AK159">
-        <v>51.9002</v>
-      </c>
-      <c r="AL159">
-        <v>2.162508333333333</v>
-      </c>
-      <c r="AM159">
         <v>0</v>
       </c>
     </row>
